--- a/academias/Biología - Estadisticos 2020.xlsx
+++ b/academias/Biología - Estadisticos 2020.xlsx
@@ -479,6 +479,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1125,6 +1126,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1720,6 +1722,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">

--- a/academias/Biología - Estadisticos 2020.xlsx
+++ b/academias/Biología - Estadisticos 2020.xlsx
@@ -566,25 +566,25 @@
         <v>28</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="H3">
-        <v>50</v>
+        <v>35.71</v>
       </c>
       <c r="I3">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="J3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -636,25 +636,25 @@
         <v>36</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>83.33</v>
+        <v>86.11</v>
       </c>
       <c r="H5">
-        <v>16.67</v>
+        <v>13.89</v>
       </c>
       <c r="I5">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>11.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -671,25 +671,25 @@
         <v>29</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F6">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G6">
-        <v>13.79</v>
+        <v>37.93</v>
       </c>
       <c r="H6">
-        <v>86.20999999999999</v>
+        <v>62.07</v>
       </c>
       <c r="I6">
-        <v>7.3</v>
+        <v>5.6</v>
       </c>
       <c r="J6">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>86.20999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -706,25 +706,25 @@
         <v>33</v>
       </c>
       <c r="E7">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G7">
-        <v>63.64</v>
+        <v>75.76000000000001</v>
       </c>
       <c r="H7">
-        <v>36.36</v>
+        <v>24.24</v>
       </c>
       <c r="I7">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="J7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>36.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -753,13 +753,13 @@
         <v>43.59</v>
       </c>
       <c r="I8">
-        <v>8.300000000000001</v>
+        <v>6.8</v>
       </c>
       <c r="J8">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>43.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1178,22 +1178,25 @@
         <v>37</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F2">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>75.68000000000001</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>24.32</v>
+      </c>
+      <c r="I2">
+        <v>8.5</v>
       </c>
       <c r="J2">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1210,22 +1213,25 @@
         <v>28</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F3">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>67.86</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <v>32.14</v>
+      </c>
+      <c r="I3">
+        <v>7.1</v>
       </c>
       <c r="J3">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1242,22 +1248,25 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F4">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>83.33</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>16.67</v>
+      </c>
+      <c r="I4">
+        <v>8.300000000000001</v>
       </c>
       <c r="J4">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1274,22 +1283,25 @@
         <v>36</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F5">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>83.33</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>16.67</v>
+      </c>
+      <c r="I5">
+        <v>8.4</v>
       </c>
       <c r="J5">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1306,22 +1318,25 @@
         <v>29</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F6">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>17.24</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>82.76000000000001</v>
+      </c>
+      <c r="I6">
+        <v>7.4</v>
       </c>
       <c r="J6">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K6">
-        <v>100</v>
+        <v>75.86</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1338,22 +1353,25 @@
         <v>33</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F7">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>63.64</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>36.36</v>
+      </c>
+      <c r="I7">
+        <v>7.4</v>
       </c>
       <c r="J7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1370,22 +1388,25 @@
         <v>39</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F8">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>58.97</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>41.03</v>
+      </c>
+      <c r="I8">
+        <v>7.1</v>
       </c>
       <c r="J8">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1774,19 +1795,19 @@
         <v>37</v>
       </c>
       <c r="E2">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G2">
-        <v>83.78</v>
+        <v>75.68000000000001</v>
       </c>
       <c r="H2">
-        <v>16.22</v>
+        <v>24.32</v>
       </c>
       <c r="I2">
-        <v>7.4</v>
+        <v>8.1</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1809,25 +1830,25 @@
         <v>28</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F3">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>67.86</v>
       </c>
       <c r="H3">
-        <v>50</v>
+        <v>32.14</v>
       </c>
       <c r="I3">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1844,19 +1865,19 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>100</v>
+        <v>83.33</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>16.67</v>
       </c>
       <c r="I4">
-        <v>8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1891,13 +1912,13 @@
         <v>16.67</v>
       </c>
       <c r="I5">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>11.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1914,25 +1935,25 @@
         <v>29</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F6">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G6">
-        <v>13.79</v>
+        <v>34.48</v>
       </c>
       <c r="H6">
-        <v>86.20999999999999</v>
+        <v>65.52</v>
       </c>
       <c r="I6">
-        <v>7.3</v>
+        <v>5.7</v>
       </c>
       <c r="J6">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>86.20999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1961,13 +1982,13 @@
         <v>36.36</v>
       </c>
       <c r="I7">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="J7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>36.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1984,25 +2005,25 @@
         <v>39</v>
       </c>
       <c r="E8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8">
-        <v>56.41</v>
+        <v>58.97</v>
       </c>
       <c r="H8">
-        <v>43.59</v>
+        <v>41.03</v>
       </c>
       <c r="I8">
-        <v>8.300000000000001</v>
+        <v>7.1</v>
       </c>
       <c r="J8">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>43.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">

--- a/academias/Biología - Estadisticos 2020.xlsx
+++ b/academias/Biología - Estadisticos 2020.xlsx
@@ -776,25 +776,25 @@
         <v>36</v>
       </c>
       <c r="E9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>91.67</v>
+        <v>100</v>
       </c>
       <c r="H9">
-        <v>8.33</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="J9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>8.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -811,25 +811,25 @@
         <v>35</v>
       </c>
       <c r="E10">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>82.86</v>
+        <v>100</v>
       </c>
       <c r="H10">
-        <v>17.14</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>8.300000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>17.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -846,25 +846,25 @@
         <v>25</v>
       </c>
       <c r="E11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -893,13 +893,13 @@
         <v>20.51</v>
       </c>
       <c r="I12">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>2.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -963,13 +963,13 @@
         <v>13.89</v>
       </c>
       <c r="I14">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>2.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1021,25 +1021,25 @@
         <v>38</v>
       </c>
       <c r="E16">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F16">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G16">
-        <v>52.63</v>
+        <v>57.89</v>
       </c>
       <c r="H16">
-        <v>47.37</v>
+        <v>42.11</v>
       </c>
       <c r="I16">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="J16">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K16">
-        <v>47.37</v>
+        <v>42.11</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1056,25 +1056,25 @@
         <v>34</v>
       </c>
       <c r="E17">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F17">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G17">
-        <v>64.70999999999999</v>
+        <v>70.59</v>
       </c>
       <c r="H17">
-        <v>35.29</v>
+        <v>29.41</v>
       </c>
       <c r="I17">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="J17">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K17">
-        <v>35.29</v>
+        <v>29.41</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1423,22 +1423,25 @@
         <v>36</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F9">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>8.5</v>
       </c>
       <c r="J9">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1455,22 +1458,25 @@
         <v>35</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F10">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H10">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>7.6</v>
       </c>
       <c r="J10">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1487,22 +1493,25 @@
         <v>25</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F11">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H11">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>8.300000000000001</v>
       </c>
       <c r="J11">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1519,22 +1528,25 @@
         <v>39</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F12">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>71.79000000000001</v>
       </c>
       <c r="H12">
-        <v>100</v>
+        <v>28.21</v>
+      </c>
+      <c r="I12">
+        <v>7.8</v>
       </c>
       <c r="J12">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="K12">
-        <v>100</v>
+        <v>12.82</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1551,22 +1563,25 @@
         <v>37</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F13">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>67.56999999999999</v>
       </c>
       <c r="H13">
-        <v>100</v>
+        <v>32.43</v>
+      </c>
+      <c r="I13">
+        <v>6.9</v>
       </c>
       <c r="J13">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="K13">
-        <v>100</v>
+        <v>10.81</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1583,22 +1598,25 @@
         <v>36</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F14">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>86.11</v>
       </c>
       <c r="H14">
-        <v>100</v>
+        <v>13.89</v>
+      </c>
+      <c r="I14">
+        <v>8.9</v>
       </c>
       <c r="J14">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="K14">
-        <v>100</v>
+        <v>13.89</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1615,22 +1633,25 @@
         <v>35</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F15">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>74.29000000000001</v>
       </c>
       <c r="H15">
-        <v>100</v>
+        <v>25.71</v>
+      </c>
+      <c r="I15">
+        <v>7.7</v>
       </c>
       <c r="J15">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="K15">
-        <v>100</v>
+        <v>17.14</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1647,22 +1668,25 @@
         <v>38</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F16">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>47.37</v>
       </c>
       <c r="H16">
-        <v>100</v>
+        <v>52.63</v>
+      </c>
+      <c r="I16">
+        <v>9.4</v>
       </c>
       <c r="J16">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K16">
-        <v>100</v>
+        <v>52.63</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1679,22 +1703,25 @@
         <v>34</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F17">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>61.76</v>
       </c>
       <c r="H17">
-        <v>100</v>
+        <v>38.24</v>
+      </c>
+      <c r="I17">
+        <v>8.6</v>
       </c>
       <c r="J17">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="K17">
-        <v>100</v>
+        <v>38.24</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2040,25 +2067,25 @@
         <v>36</v>
       </c>
       <c r="E9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>91.67</v>
+        <v>100</v>
       </c>
       <c r="H9">
-        <v>8.33</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>8.800000000000001</v>
       </c>
       <c r="J9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>8.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2075,25 +2102,25 @@
         <v>35</v>
       </c>
       <c r="E10">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>82.86</v>
+        <v>100</v>
       </c>
       <c r="H10">
-        <v>17.14</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>8.300000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="J10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>17.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2110,25 +2137,25 @@
         <v>25</v>
       </c>
       <c r="E11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>8.5</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2145,25 +2172,25 @@
         <v>39</v>
       </c>
       <c r="E12">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G12">
-        <v>79.48999999999999</v>
+        <v>82.05</v>
       </c>
       <c r="H12">
-        <v>20.51</v>
+        <v>17.95</v>
       </c>
       <c r="I12">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>2.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2192,7 +2219,7 @@
         <v>21.62</v>
       </c>
       <c r="I13">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -2215,25 +2242,25 @@
         <v>36</v>
       </c>
       <c r="E14">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G14">
-        <v>86.11</v>
+        <v>91.67</v>
       </c>
       <c r="H14">
-        <v>13.89</v>
+        <v>8.33</v>
       </c>
       <c r="I14">
-        <v>7.5</v>
+        <v>8.1</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>2.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2262,7 +2289,7 @@
         <v>8.57</v>
       </c>
       <c r="I15">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -2285,25 +2312,25 @@
         <v>38</v>
       </c>
       <c r="E16">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F16">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G16">
-        <v>52.63</v>
+        <v>57.89</v>
       </c>
       <c r="H16">
-        <v>47.37</v>
+        <v>42.11</v>
       </c>
       <c r="I16">
-        <v>8.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="J16">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K16">
-        <v>47.37</v>
+        <v>42.11</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2320,25 +2347,25 @@
         <v>34</v>
       </c>
       <c r="E17">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F17">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G17">
-        <v>64.70999999999999</v>
+        <v>70.59</v>
       </c>
       <c r="H17">
-        <v>35.29</v>
+        <v>29.41</v>
       </c>
       <c r="I17">
-        <v>8.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="J17">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K17">
-        <v>35.29</v>
+        <v>29.41</v>
       </c>
     </row>
     <row r="18" spans="1:11">

--- a/academias/Biología - Estadisticos 2020.xlsx
+++ b/academias/Biología - Estadisticos 2020.xlsx
@@ -1091,25 +1091,25 @@
         <v>25</v>
       </c>
       <c r="E18">
+        <v>22</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>88</v>
+      </c>
+      <c r="H18">
         <v>12</v>
       </c>
-      <c r="F18">
-        <v>13</v>
-      </c>
-      <c r="G18">
-        <v>48</v>
-      </c>
-      <c r="H18">
-        <v>52</v>
-      </c>
       <c r="I18">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="J18">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="K18">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1738,22 +1738,25 @@
         <v>25</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F18">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="H18">
-        <v>100</v>
+        <v>12</v>
+      </c>
+      <c r="I18">
+        <v>7.8</v>
       </c>
       <c r="J18">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="K18">
-        <v>100</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2382,25 +2385,25 @@
         <v>25</v>
       </c>
       <c r="E18">
+        <v>22</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>88</v>
+      </c>
+      <c r="H18">
         <v>12</v>
-      </c>
-      <c r="F18">
-        <v>13</v>
-      </c>
-      <c r="G18">
-        <v>48</v>
-      </c>
-      <c r="H18">
-        <v>52</v>
       </c>
       <c r="I18">
         <v>8</v>
       </c>
       <c r="J18">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="K18">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/academias/Biología - Estadisticos 2020.xlsx
+++ b/academias/Biología - Estadisticos 2020.xlsx
@@ -1633,25 +1633,25 @@
         <v>35</v>
       </c>
       <c r="E15">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G15">
-        <v>74.29000000000001</v>
+        <v>77.14</v>
       </c>
       <c r="H15">
-        <v>25.71</v>
+        <v>22.86</v>
       </c>
       <c r="I15">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="J15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K15">
-        <v>17.14</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="16" spans="1:11">

--- a/academias/Biología - Estadisticos 2020.xlsx
+++ b/academias/Biología - Estadisticos 2020.xlsx
@@ -1598,25 +1598,25 @@
         <v>36</v>
       </c>
       <c r="E14">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>86.11</v>
+        <v>88.89</v>
       </c>
       <c r="H14">
-        <v>13.89</v>
+        <v>11.11</v>
       </c>
       <c r="I14">
         <v>8.9</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K14">
-        <v>13.89</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2257,7 +2257,7 @@
         <v>8.33</v>
       </c>
       <c r="I14">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J14">
         <v>0</v>
